--- a/data/resumes_scrubbed/confirmations/112_1.xlsx
+++ b/data/resumes_scrubbed/confirmations/112_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{06FB9C84-566F-41E5-A9C4-D2D6179C0BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F2D2EF-76A2-48A9-A76D-B06E7415042F}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{06FB9C84-566F-41E5-A9C4-D2D6179C0BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17D9560B-9D8B-40FE-AA5A-1B69425DCD12}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Other Civilian</t>
   </si>
@@ -46,33 +40,6 @@
     <t>Civilian</t>
   </si>
   <si>
-    <t xml:space="preserve">     Confirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Returned to White House </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total nominations Received this Session </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Confirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Withdrawn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Returned to the White House </t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
@@ -89,6 +56,81 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Returned to White House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Other Civilian, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed </t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total returned to the White House </t>
   </si>
 </sst>
 </file>
@@ -642,6 +684,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,15 +1019,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>112</v>
@@ -989,7 +1035,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -997,7 +1043,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>40548</v>
@@ -1005,7 +1051,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>40911</v>
@@ -1013,12 +1059,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>503</v>
@@ -1026,7 +1072,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>285</v>
@@ -1034,7 +1080,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>188</v>
@@ -1042,7 +1088,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>18</v>
@@ -1050,7 +1096,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>12</v>
@@ -1058,12 +1104,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>3469</v>
@@ -1071,7 +1117,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>3297</v>
@@ -1079,7 +1125,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <v>167</v>
@@ -1087,7 +1133,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>5</v>
@@ -1095,12 +1141,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
         <v>5983</v>
@@ -1108,7 +1154,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
         <v>5688</v>
@@ -1116,7 +1162,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>295</v>
@@ -1124,12 +1170,12 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3">
         <v>5908</v>
@@ -1137,7 +1183,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B23" s="3">
         <v>5892</v>
@@ -1145,7 +1191,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>16</v>
@@ -1153,12 +1199,12 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3">
         <v>3405</v>
@@ -1166,7 +1212,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3">
         <v>3404</v>
@@ -1174,7 +1220,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -1182,12 +1228,12 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>1249</v>
@@ -1195,7 +1241,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>1249</v>
@@ -1203,46 +1249,41 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>20517</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>20517</v>
+        <v>19815</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3">
-        <v>19815</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>667</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="2">
         <v>12</v>
       </c>
     </row>
